--- a/data/trans_orig/IP3107-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP3107-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD3C23EC-ADA2-4E29-BC45-074B4373C8BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F9D6638-24B6-47DA-A6A0-BFD3C2C38DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{8E300E46-A4C8-4C1C-8297-C583B02C39E6}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{A1052DB0-59FC-4D68-92D1-CFB5242FDE37}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,6 +70,66 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Todos los dias</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>5 o 6 veces a la semana</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
     <t>3 o 4 veces a la semana</t>
   </si>
   <si>
@@ -100,34 +160,31 @@
     <t>10,66%</t>
   </si>
   <si>
-    <t>5 o 6 veces a la semana</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -160,69 +217,204 @@
     <t>37,67%</t>
   </si>
   <si>
-    <t>Todos los dias</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
     <t>4,71%</t>
   </si>
   <si>
@@ -250,31 +442,28 @@
     <t>6,22%</t>
   </si>
   <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
   </si>
   <si>
     <t>9,05%</t>
@@ -301,193 +490,55 @@
     <t>9,98%</t>
   </si>
   <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
   </si>
   <si>
     <t>6,66%</t>
@@ -517,28 +568,25 @@
     <t>7,69%</t>
   </si>
   <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
   </si>
   <si>
     <t>16,61%</t>
@@ -568,57 +616,51 @@
     <t>17,79%</t>
   </si>
   <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
     <t>Menores según la frecuencia se lava los dientes por la mañana en 2012 (Tasa respuesta: 83,71%)</t>
   </si>
   <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
     <t>11,55%</t>
   </si>
   <si>
@@ -646,19 +688,28 @@
     <t>12,45%</t>
   </si>
   <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
   </si>
   <si>
     <t>18,2%</t>
@@ -688,55 +739,181 @@
     <t>24,83%</t>
   </si>
   <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>65,04%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
   </si>
   <si>
     <t>6,79%</t>
@@ -745,9 +922,6 @@
     <t>4,57%</t>
   </si>
   <si>
-    <t>9,83%</t>
-  </si>
-  <si>
     <t>6,83%</t>
   </si>
   <si>
@@ -766,31 +940,28 @@
     <t>8,64%</t>
   </si>
   <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
   </si>
   <si>
     <t>4,93%</t>
@@ -808,181 +979,58 @@
     <t>1,06%</t>
   </si>
   <si>
-    <t>4,03%</t>
-  </si>
-  <si>
     <t>2,36%</t>
   </si>
   <si>
     <t>4,98%</t>
   </si>
   <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
   </si>
   <si>
     <t>9,68%</t>
@@ -1000,25 +1048,28 @@
     <t>9,64%</t>
   </si>
   <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
   </si>
   <si>
     <t>8,09%</t>
@@ -1036,60 +1087,63 @@
     <t>9,35%</t>
   </si>
   <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
     <t>Menores según la frecuencia se lava los dientes por la mañana en 2015 (Tasa respuesta: 90,08%)</t>
   </si>
   <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
     <t>6,45%</t>
   </si>
   <si>
@@ -1108,31 +1162,16 @@
     <t>7,98%</t>
   </si>
   <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
   </si>
   <si>
     <t>13,43%</t>
@@ -1162,43 +1201,160 @@
     <t>18,17%</t>
   </si>
   <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
   </si>
   <si>
     <t>4,9%</t>
@@ -1225,25 +1381,28 @@
     <t>5,85%</t>
   </si>
   <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
   </si>
   <si>
     <t>1,45%</t>
@@ -1264,163 +1423,55 @@
     <t>1,66%</t>
   </si>
   <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
   </si>
   <si>
     <t>5,42%</t>
@@ -1441,28 +1492,25 @@
     <t>3,57%</t>
   </si>
   <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
   </si>
   <si>
     <t>5,22%</t>
@@ -1472,54 +1520,6 @@
   </si>
   <si>
     <t>7,46%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
   </si>
 </sst>
 </file>
@@ -1911,7 +1911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0166A4EB-05AF-4312-869C-1EB5A59F71E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E25E6F6-D42C-4142-9CFC-EEDA870CE003}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2029,10 +2029,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="D4" s="7">
-        <v>10861</v>
+        <v>66263</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2044,10 +2044,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="I4" s="7">
-        <v>9906</v>
+        <v>64894</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2059,10 +2059,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>31</v>
+        <v>196</v>
       </c>
       <c r="N4" s="7">
-        <v>20767</v>
+        <v>131156</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2131,10 +2131,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="D6" s="7">
-        <v>40231</v>
+        <v>10861</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2146,10 +2146,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="I6" s="7">
-        <v>47576</v>
+        <v>9906</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2161,10 +2161,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="N6" s="7">
-        <v>87807</v>
+        <v>20767</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -2182,10 +2182,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="D7" s="7">
-        <v>66263</v>
+        <v>6670</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -2197,10 +2197,10 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="I7" s="7">
-        <v>64894</v>
+        <v>9306</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -2212,10 +2212,10 @@
         <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>196</v>
+        <v>24</v>
       </c>
       <c r="N7" s="7">
-        <v>131156</v>
+        <v>15976</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -2224,58 +2224,58 @@
         <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="7">
+        <v>60</v>
+      </c>
+      <c r="D8" s="7">
+        <v>40231</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="7">
-        <v>10</v>
-      </c>
-      <c r="D8" s="7">
-        <v>6670</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>72</v>
+      </c>
+      <c r="I8" s="7">
+        <v>47576</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="7">
-        <v>14</v>
-      </c>
-      <c r="I8" s="7">
-        <v>9306</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>132</v>
+      </c>
+      <c r="N8" s="7">
+        <v>87807</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M8" s="7">
-        <v>24</v>
-      </c>
-      <c r="N8" s="7">
-        <v>15976</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2337,10 +2337,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>20</v>
+        <v>217</v>
       </c>
       <c r="D10" s="7">
-        <v>13117</v>
+        <v>143172</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -2352,10 +2352,10 @@
         <v>63</v>
       </c>
       <c r="H10" s="7">
-        <v>17</v>
+        <v>200</v>
       </c>
       <c r="I10" s="7">
-        <v>11929</v>
+        <v>135503</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -2367,10 +2367,10 @@
         <v>66</v>
       </c>
       <c r="M10" s="7">
-        <v>37</v>
+        <v>417</v>
       </c>
       <c r="N10" s="7">
-        <v>25046</v>
+        <v>278676</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>67</v>
@@ -2391,7 +2391,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="7">
-        <v>8228</v>
+        <v>7847</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>70</v>
@@ -2403,10 +2403,10 @@
         <v>72</v>
       </c>
       <c r="H11" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I11" s="7">
-        <v>6010</v>
+        <v>8682</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>73</v>
@@ -2418,10 +2418,10 @@
         <v>75</v>
       </c>
       <c r="M11" s="7">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N11" s="7">
-        <v>14239</v>
+        <v>16529</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>76</v>
@@ -2439,10 +2439,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D12" s="7">
-        <v>25210</v>
+        <v>17361</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>79</v>
@@ -2454,34 +2454,34 @@
         <v>81</v>
       </c>
       <c r="H12" s="7">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I12" s="7">
-        <v>16884</v>
+        <v>15412</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="N12" s="7">
-        <v>42094</v>
+        <v>32773</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2490,100 +2490,100 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>336</v>
+        <v>10</v>
       </c>
       <c r="D13" s="7">
-        <v>224715</v>
+        <v>6657</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H13" s="7">
-        <v>328</v>
+        <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>221318</v>
+        <v>5065</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M13" s="7">
-        <v>664</v>
+        <v>18</v>
       </c>
       <c r="N13" s="7">
-        <v>446033</v>
+        <v>11722</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="D14" s="7">
-        <v>7236</v>
+        <v>37734</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="I14" s="7">
-        <v>2712</v>
+        <v>28118</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M14" s="7">
         <v>98</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="M14" s="7">
-        <v>15</v>
-      </c>
       <c r="N14" s="7">
-        <v>9948</v>
+        <v>65852</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2592,10 +2592,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>417</v>
+        <v>322</v>
       </c>
       <c r="D15" s="7">
-        <v>278507</v>
+        <v>212771</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>59</v>
@@ -2607,10 +2607,10 @@
         <v>59</v>
       </c>
       <c r="H15" s="7">
-        <v>383</v>
+        <v>286</v>
       </c>
       <c r="I15" s="7">
-        <v>258853</v>
+        <v>192780</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>59</v>
@@ -2622,10 +2622,10 @@
         <v>59</v>
       </c>
       <c r="M15" s="7">
-        <v>800</v>
+        <v>608</v>
       </c>
       <c r="N15" s="7">
-        <v>537360</v>
+        <v>405552</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>59</v>
@@ -2639,55 +2639,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>26</v>
+        <v>336</v>
       </c>
       <c r="D16" s="7">
-        <v>17361</v>
+        <v>224715</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
-        <v>24</v>
+        <v>328</v>
       </c>
       <c r="I16" s="7">
-        <v>15412</v>
+        <v>221318</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
-        <v>50</v>
+        <v>664</v>
       </c>
       <c r="N16" s="7">
-        <v>32773</v>
+        <v>446033</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,46 +2699,46 @@
         <v>12</v>
       </c>
       <c r="D17" s="7">
-        <v>7847</v>
+        <v>8228</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I17" s="7">
-        <v>8682</v>
+        <v>6010</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N17" s="7">
-        <v>16529</v>
+        <v>14239</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2747,49 +2747,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="D18" s="7">
-        <v>37734</v>
+        <v>13117</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I18" s="7">
-        <v>28118</v>
+        <v>11929</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="N18" s="7">
-        <v>65852</v>
+        <v>25046</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2798,79 +2798,79 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>217</v>
+        <v>11</v>
       </c>
       <c r="D19" s="7">
-        <v>143172</v>
+        <v>7236</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H19" s="7">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="I19" s="7">
-        <v>135503</v>
+        <v>2712</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
-        <v>417</v>
+        <v>15</v>
       </c>
       <c r="N19" s="7">
-        <v>278676</v>
+        <v>9948</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D20" s="7">
-        <v>6657</v>
+        <v>25210</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H20" s="7">
+        <v>25</v>
+      </c>
+      <c r="I20" s="7">
+        <v>16884</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="H20" s="7">
-        <v>8</v>
-      </c>
-      <c r="I20" s="7">
-        <v>5065</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>145</v>
@@ -2879,10 +2879,10 @@
         <v>146</v>
       </c>
       <c r="M20" s="7">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="N20" s="7">
-        <v>11722</v>
+        <v>42094</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>147</v>
@@ -2900,10 +2900,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>322</v>
+        <v>417</v>
       </c>
       <c r="D21" s="7">
-        <v>212771</v>
+        <v>278507</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>59</v>
@@ -2915,10 +2915,10 @@
         <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>286</v>
+        <v>383</v>
       </c>
       <c r="I21" s="7">
-        <v>192780</v>
+        <v>258853</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>59</v>
@@ -2930,10 +2930,10 @@
         <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>608</v>
+        <v>800</v>
       </c>
       <c r="N21" s="7">
-        <v>405552</v>
+        <v>537360</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>59</v>
@@ -2953,10 +2953,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>62</v>
+        <v>651</v>
       </c>
       <c r="D22" s="7">
-        <v>41339</v>
+        <v>434150</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>150</v>
@@ -2968,10 +2968,10 @@
         <v>152</v>
       </c>
       <c r="H22" s="7">
-        <v>56</v>
+        <v>626</v>
       </c>
       <c r="I22" s="7">
-        <v>37247</v>
+        <v>421715</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>153</v>
@@ -2983,10 +2983,10 @@
         <v>155</v>
       </c>
       <c r="M22" s="7">
-        <v>118</v>
+        <v>1277</v>
       </c>
       <c r="N22" s="7">
-        <v>78586</v>
+        <v>855865</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>156</v>
@@ -3043,7 +3043,7 @@
         <v>165</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>166</v>
@@ -3055,10 +3055,10 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>155</v>
+        <v>62</v>
       </c>
       <c r="D24" s="7">
-        <v>103176</v>
+        <v>41339</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>167</v>
@@ -3070,10 +3070,10 @@
         <v>169</v>
       </c>
       <c r="H24" s="7">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c r="I24" s="7">
-        <v>92578</v>
+        <v>37247</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>170</v>
@@ -3085,10 +3085,10 @@
         <v>172</v>
       </c>
       <c r="M24" s="7">
-        <v>293</v>
+        <v>118</v>
       </c>
       <c r="N24" s="7">
-        <v>195753</v>
+        <v>78586</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>173</v>
@@ -3106,10 +3106,10 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>651</v>
+        <v>31</v>
       </c>
       <c r="D25" s="7">
-        <v>434150</v>
+        <v>20562</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>176</v>
@@ -3118,79 +3118,79 @@
         <v>177</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H25" s="7">
+        <v>26</v>
+      </c>
+      <c r="I25" s="7">
+        <v>17083</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="H25" s="7">
-        <v>626</v>
-      </c>
-      <c r="I25" s="7">
-        <v>421715</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M25" s="7">
+        <v>57</v>
+      </c>
+      <c r="N25" s="7">
+        <v>37646</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="M25" s="7">
-        <v>1277</v>
-      </c>
-      <c r="N25" s="7">
-        <v>855865</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
-        <v>31</v>
+        <v>155</v>
       </c>
       <c r="D26" s="7">
-        <v>20562</v>
+        <v>103176</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>138</v>
+      </c>
+      <c r="I26" s="7">
+        <v>92578</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="H26" s="7">
-        <v>26</v>
-      </c>
-      <c r="I26" s="7">
-        <v>17083</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="L26" s="7" t="s">
-        <v>75</v>
-      </c>
       <c r="M26" s="7">
-        <v>57</v>
+        <v>293</v>
       </c>
       <c r="N26" s="7">
-        <v>37646</v>
+        <v>195753</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>189</v>
@@ -3269,7 +3269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5478EB6-6F60-4B65-B3E0-76049DE4B8E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D16E56-5B78-4DDF-8396-0E665F910A97}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3387,10 +3387,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="D4" s="7">
-        <v>15506</v>
+        <v>81829</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>193</v>
@@ -3402,10 +3402,10 @@
         <v>195</v>
       </c>
       <c r="H4" s="7">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="I4" s="7">
-        <v>7984</v>
+        <v>72021</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>196</v>
@@ -3417,10 +3417,10 @@
         <v>198</v>
       </c>
       <c r="M4" s="7">
-        <v>33</v>
+        <v>223</v>
       </c>
       <c r="N4" s="7">
-        <v>23490</v>
+        <v>153850</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>199</v>
@@ -3444,10 +3444,10 @@
         <v>7235</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>202</v>
@@ -3465,7 +3465,7 @@
         <v>204</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="M5" s="7">
         <v>20</v>
@@ -3477,7 +3477,7 @@
         <v>205</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>206</v>
@@ -3489,10 +3489,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D6" s="7">
-        <v>24428</v>
+        <v>15506</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>207</v>
@@ -3504,10 +3504,10 @@
         <v>209</v>
       </c>
       <c r="H6" s="7">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I6" s="7">
-        <v>29753</v>
+        <v>7984</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>210</v>
@@ -3519,10 +3519,10 @@
         <v>212</v>
       </c>
       <c r="M6" s="7">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="N6" s="7">
-        <v>54181</v>
+        <v>23490</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>213</v>
@@ -3540,10 +3540,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>114</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>81829</v>
+        <v>5209</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>216</v>
@@ -3555,10 +3555,10 @@
         <v>218</v>
       </c>
       <c r="H7" s="7">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="I7" s="7">
-        <v>72021</v>
+        <v>8870</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>219</v>
@@ -3570,64 +3570,64 @@
         <v>221</v>
       </c>
       <c r="M7" s="7">
+        <v>21</v>
+      </c>
+      <c r="N7" s="7">
+        <v>14079</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="N7" s="7">
-        <v>153850</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D8" s="7">
-        <v>5209</v>
+        <v>24428</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>45</v>
+      </c>
+      <c r="I8" s="7">
+        <v>29753</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="H8" s="7">
-        <v>14</v>
-      </c>
-      <c r="I8" s="7">
-        <v>8870</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>80</v>
+      </c>
+      <c r="N8" s="7">
+        <v>54181</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="M8" s="7">
-        <v>21</v>
-      </c>
-      <c r="N8" s="7">
-        <v>14079</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>231</v>
@@ -3695,10 +3695,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>26</v>
+        <v>228</v>
       </c>
       <c r="D10" s="7">
-        <v>18228</v>
+        <v>165193</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>233</v>
@@ -3710,10 +3710,10 @@
         <v>235</v>
       </c>
       <c r="H10" s="7">
-        <v>25</v>
+        <v>238</v>
       </c>
       <c r="I10" s="7">
-        <v>17391</v>
+        <v>170130</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>236</v>
@@ -3725,10 +3725,10 @@
         <v>238</v>
       </c>
       <c r="M10" s="7">
-        <v>51</v>
+        <v>466</v>
       </c>
       <c r="N10" s="7">
-        <v>35619</v>
+        <v>335322</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>239</v>
@@ -3746,49 +3746,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D11" s="7">
-        <v>15784</v>
+        <v>14938</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>20</v>
+      </c>
+      <c r="I11" s="7">
+        <v>14359</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="H11" s="7">
-        <v>9</v>
-      </c>
-      <c r="I11" s="7">
-        <v>6521</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>40</v>
+      </c>
+      <c r="N11" s="7">
+        <v>29297</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="M11" s="7">
-        <v>32</v>
-      </c>
-      <c r="N11" s="7">
-        <v>22305</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3797,49 +3797,49 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D12" s="7">
-        <v>13229</v>
+        <v>27512</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>19</v>
+      </c>
+      <c r="I12" s="7">
+        <v>13918</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="H12" s="7">
-        <v>8</v>
-      </c>
-      <c r="I12" s="7">
-        <v>5542</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>57</v>
+      </c>
+      <c r="N12" s="7">
+        <v>41430</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="M12" s="7">
-        <v>28</v>
-      </c>
-      <c r="N12" s="7">
-        <v>18772</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3848,100 +3848,100 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>319</v>
+        <v>12</v>
       </c>
       <c r="D13" s="7">
-        <v>216155</v>
+        <v>8823</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H13" s="7">
+        <v>11</v>
+      </c>
+      <c r="I13" s="7">
+        <v>7988</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="H13" s="7">
-        <v>309</v>
-      </c>
-      <c r="I13" s="7">
-        <v>218043</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>23</v>
+      </c>
+      <c r="N13" s="7">
+        <v>16810</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="M13" s="7">
-        <v>628</v>
-      </c>
-      <c r="N13" s="7">
-        <v>434198</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D14" s="7">
-        <v>5027</v>
+        <v>13492</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H14" s="7">
+        <v>17</v>
+      </c>
+      <c r="I14" s="7">
+        <v>11438</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="H14" s="7">
-        <v>11</v>
-      </c>
-      <c r="I14" s="7">
-        <v>6959</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>37</v>
+      </c>
+      <c r="N14" s="7">
+        <v>24930</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="M14" s="7">
-        <v>18</v>
-      </c>
-      <c r="N14" s="7">
-        <v>11986</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3950,10 +3950,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>395</v>
+        <v>318</v>
       </c>
       <c r="D15" s="7">
-        <v>268423</v>
+        <v>229957</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>59</v>
@@ -3965,10 +3965,10 @@
         <v>59</v>
       </c>
       <c r="H15" s="7">
-        <v>362</v>
+        <v>305</v>
       </c>
       <c r="I15" s="7">
-        <v>254457</v>
+        <v>217833</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>59</v>
@@ -3980,10 +3980,10 @@
         <v>59</v>
       </c>
       <c r="M15" s="7">
-        <v>757</v>
+        <v>623</v>
       </c>
       <c r="N15" s="7">
-        <v>522880</v>
+        <v>447789</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>59</v>
@@ -3997,46 +3997,46 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>38</v>
+        <v>319</v>
       </c>
       <c r="D16" s="7">
-        <v>27512</v>
+        <v>216155</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>309</v>
+      </c>
+      <c r="I16" s="7">
+        <v>218043</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="H16" s="7">
-        <v>19</v>
-      </c>
-      <c r="I16" s="7">
-        <v>13918</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>235</v>
-      </c>
       <c r="M16" s="7">
-        <v>57</v>
+        <v>628</v>
       </c>
       <c r="N16" s="7">
-        <v>41430</v>
+        <v>434198</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>280</v>
@@ -4054,49 +4054,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D17" s="7">
-        <v>14938</v>
+        <v>15784</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>156</v>
+        <v>283</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H17" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I17" s="7">
-        <v>14359</v>
+        <v>6521</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M17" s="7">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N17" s="7">
-        <v>29297</v>
+        <v>22305</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4105,49 +4105,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D18" s="7">
-        <v>13492</v>
+        <v>18228</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>292</v>
+        <v>254</v>
       </c>
       <c r="H18" s="7">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I18" s="7">
-        <v>11438</v>
+        <v>17391</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M18" s="7">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="N18" s="7">
-        <v>24930</v>
+        <v>35619</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4156,40 +4156,40 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>228</v>
+        <v>7</v>
       </c>
       <c r="D19" s="7">
-        <v>165193</v>
+        <v>5027</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H19" s="7">
-        <v>238</v>
+        <v>11</v>
       </c>
       <c r="I19" s="7">
-        <v>170130</v>
+        <v>6959</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>304</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
-        <v>466</v>
+        <v>18</v>
       </c>
       <c r="N19" s="7">
-        <v>335322</v>
+        <v>11986</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>305</v>
@@ -4204,13 +4204,13 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D20" s="7">
-        <v>8823</v>
+        <v>13229</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>308</v>
@@ -4219,34 +4219,34 @@
         <v>309</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="H20" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I20" s="7">
-        <v>7988</v>
+        <v>5542</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>312</v>
+        <v>253</v>
       </c>
       <c r="M20" s="7">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N20" s="7">
-        <v>16810</v>
+        <v>18772</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>314</v>
@@ -4258,10 +4258,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>318</v>
+        <v>395</v>
       </c>
       <c r="D21" s="7">
-        <v>229957</v>
+        <v>268423</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>59</v>
@@ -4273,10 +4273,10 @@
         <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>305</v>
+        <v>362</v>
       </c>
       <c r="I21" s="7">
-        <v>217833</v>
+        <v>254457</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>59</v>
@@ -4288,10 +4288,10 @@
         <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>623</v>
+        <v>757</v>
       </c>
       <c r="N21" s="7">
-        <v>447789</v>
+        <v>522880</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>59</v>
@@ -4311,49 +4311,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>85</v>
+        <v>661</v>
       </c>
       <c r="D22" s="7">
-        <v>61246</v>
+        <v>463177</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>315</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>17</v>
+        <v>316</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>107</v>
+        <v>317</v>
       </c>
       <c r="H22" s="7">
-        <v>56</v>
+        <v>656</v>
       </c>
       <c r="I22" s="7">
-        <v>39293</v>
+        <v>460194</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>146</v>
+        <v>319</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="M22" s="7">
-        <v>141</v>
+        <v>1317</v>
       </c>
       <c r="N22" s="7">
-        <v>100539</v>
+        <v>923371</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4368,13 +4368,13 @@
         <v>37957</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="H23" s="7">
         <v>38</v>
@@ -4383,13 +4383,13 @@
         <v>26571</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="M23" s="7">
         <v>92</v>
@@ -4398,13 +4398,13 @@
         <v>64528</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4413,49 +4413,49 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D24" s="7">
-        <v>51149</v>
+        <v>61246</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>328</v>
+        <v>81</v>
       </c>
       <c r="H24" s="7">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="I24" s="7">
-        <v>46733</v>
+        <v>39293</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>84</v>
+        <v>244</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>329</v>
+        <v>93</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M24" s="7">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="N24" s="7">
-        <v>97882</v>
+        <v>100539</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>232</v>
+        <v>333</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>54</v>
+        <v>334</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4464,97 +4464,97 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>661</v>
+        <v>26</v>
       </c>
       <c r="D25" s="7">
-        <v>463177</v>
+        <v>19059</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="H25" s="7">
-        <v>656</v>
+        <v>36</v>
       </c>
       <c r="I25" s="7">
-        <v>460194</v>
+        <v>23816</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="M25" s="7">
-        <v>1317</v>
+        <v>62</v>
       </c>
       <c r="N25" s="7">
-        <v>923371</v>
+        <v>42875</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>339</v>
+        <v>77</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="D26" s="7">
-        <v>19059</v>
+        <v>51149</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>342</v>
+        <v>143</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H26" s="7">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I26" s="7">
-        <v>23816</v>
+        <v>46733</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>344</v>
+        <v>147</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M26" s="7">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="N26" s="7">
-        <v>42875</v>
+        <v>97882</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>347</v>
+        <v>223</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>348</v>
@@ -4627,7 +4627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04953BE6-149F-4021-8807-DBFBAB40E846}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350FD85A-98C6-45AA-AE9A-B31C2364FAA1}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4745,49 +4745,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>15</v>
+        <v>161</v>
       </c>
       <c r="D4" s="7">
-        <v>9793</v>
+        <v>106234</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>350</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>243</v>
+        <v>351</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H4" s="7">
-        <v>9</v>
+        <v>150</v>
       </c>
       <c r="I4" s="7">
-        <v>6040</v>
+        <v>90342</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>15</v>
+        <v>353</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>28</v>
+        <v>354</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M4" s="7">
-        <v>24</v>
+        <v>311</v>
       </c>
       <c r="N4" s="7">
-        <v>15832</v>
+        <v>196575</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4802,13 +4802,13 @@
         <v>12900</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -4817,13 +4817,13 @@
         <v>13564</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="M5" s="7">
         <v>40</v>
@@ -4832,13 +4832,13 @@
         <v>26463</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4847,40 +4847,40 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D6" s="7">
-        <v>20380</v>
+        <v>9793</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>366</v>
+        <v>284</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="H6" s="7">
+        <v>9</v>
+      </c>
+      <c r="I6" s="7">
+        <v>6040</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="7">
-        <v>22718</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>368</v>
-      </c>
       <c r="K6" s="7" t="s">
-        <v>369</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>370</v>
       </c>
       <c r="M6" s="7">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="N6" s="7">
-        <v>43099</v>
+        <v>15832</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>371</v>
@@ -4898,10 +4898,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>161</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>106234</v>
+        <v>2454</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>374</v>
@@ -4910,85 +4910,85 @@
         <v>375</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="7">
+        <v>8</v>
+      </c>
+      <c r="I7" s="7">
+        <v>4798</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="M7" s="7">
+        <v>12</v>
+      </c>
+      <c r="N7" s="7">
+        <v>7251</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="H7" s="7">
-        <v>150</v>
-      </c>
-      <c r="I7" s="7">
-        <v>90342</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="P7" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="M7" s="7">
-        <v>311</v>
-      </c>
-      <c r="N7" s="7">
-        <v>196575</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="D8" s="7">
-        <v>2454</v>
+        <v>20380</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="H8" s="7">
+        <v>35</v>
+      </c>
+      <c r="I8" s="7">
+        <v>22718</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>65</v>
+      </c>
+      <c r="N8" s="7">
+        <v>43099</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H8" s="7">
-        <v>8</v>
-      </c>
-      <c r="I8" s="7">
-        <v>4798</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="M8" s="7">
-        <v>12</v>
-      </c>
-      <c r="N8" s="7">
-        <v>7251</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>386</v>
@@ -5053,10 +5053,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>19</v>
+        <v>305</v>
       </c>
       <c r="D10" s="7">
-        <v>13620</v>
+        <v>209382</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>387</v>
@@ -5068,34 +5068,34 @@
         <v>389</v>
       </c>
       <c r="H10" s="7">
-        <v>12</v>
+        <v>296</v>
       </c>
       <c r="I10" s="7">
-        <v>8722</v>
+        <v>194142</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>294</v>
+        <v>390</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M10" s="7">
-        <v>31</v>
+        <v>601</v>
       </c>
       <c r="N10" s="7">
-        <v>22342</v>
+        <v>403523</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5104,49 +5104,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D11" s="7">
-        <v>12508</v>
+        <v>14935</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>117</v>
+        <v>396</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>395</v>
+        <v>27</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>396</v>
+        <v>299</v>
       </c>
       <c r="H11" s="7">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I11" s="7">
-        <v>17451</v>
+        <v>19221</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>397</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>237</v>
+        <v>398</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M11" s="7">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="N11" s="7">
-        <v>29959</v>
+        <v>34156</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5155,49 +5155,49 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>19</v>
+      </c>
+      <c r="D12" s="7">
+        <v>13387</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H12" s="7">
         <v>11</v>
       </c>
-      <c r="D12" s="7">
-        <v>8196</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="H12" s="7">
-        <v>9</v>
-      </c>
       <c r="I12" s="7">
-        <v>5690</v>
+        <v>6589</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>308</v>
+        <v>408</v>
       </c>
       <c r="M12" s="7">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N12" s="7">
-        <v>13886</v>
+        <v>19976</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>406</v>
+        <v>220</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>283</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5206,100 +5206,100 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>323</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>239366</v>
+        <v>4764</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H13" s="7">
-        <v>323</v>
+        <v>4</v>
       </c>
       <c r="I13" s="7">
-        <v>232707</v>
+        <v>2447</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>411</v>
+        <v>312</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M13" s="7">
-        <v>646</v>
+        <v>11</v>
       </c>
       <c r="N13" s="7">
-        <v>472073</v>
+        <v>7211</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>264</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D14" s="7">
-        <v>4350</v>
+        <v>6911</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I14" s="7">
-        <v>1856</v>
+        <v>8388</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M14" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="N14" s="7">
-        <v>6206</v>
+        <v>15299</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>188</v>
+        <v>425</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5308,10 +5308,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="D15" s="7">
-        <v>278039</v>
+        <v>249380</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>59</v>
@@ -5323,10 +5323,10 @@
         <v>59</v>
       </c>
       <c r="H15" s="7">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="I15" s="7">
-        <v>266426</v>
+        <v>230786</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>59</v>
@@ -5338,10 +5338,10 @@
         <v>59</v>
       </c>
       <c r="M15" s="7">
-        <v>748</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>544465</v>
+        <v>480165</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>59</v>
@@ -5355,55 +5355,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>19</v>
+        <v>323</v>
       </c>
       <c r="D16" s="7">
-        <v>13387</v>
+        <v>239366</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="H16" s="7">
-        <v>11</v>
+        <v>323</v>
       </c>
       <c r="I16" s="7">
-        <v>6589</v>
+        <v>232707</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M16" s="7">
-        <v>30</v>
+        <v>646</v>
       </c>
       <c r="N16" s="7">
-        <v>19976</v>
+        <v>472073</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>229</v>
+        <v>432</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>122</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5412,49 +5412,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D17" s="7">
-        <v>14935</v>
+        <v>12508</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>431</v>
+        <v>73</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>27</v>
+        <v>417</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>241</v>
+        <v>400</v>
       </c>
       <c r="H17" s="7">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I17" s="7">
-        <v>19221</v>
+        <v>17451</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>433</v>
+        <v>295</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M17" s="7">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="N17" s="7">
-        <v>34156</v>
+        <v>29959</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>396</v>
+        <v>436</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5463,49 +5463,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D18" s="7">
-        <v>6911</v>
+        <v>13620</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="H18" s="7">
         <v>12</v>
       </c>
       <c r="I18" s="7">
-        <v>8388</v>
+        <v>8722</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>439</v>
+        <v>269</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="M18" s="7">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N18" s="7">
-        <v>15299</v>
+        <v>22342</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5514,64 +5514,64 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>305</v>
+        <v>6</v>
       </c>
       <c r="D19" s="7">
-        <v>209382</v>
+        <v>4350</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H19" s="7">
-        <v>296</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>194142</v>
+        <v>1856</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="M19" s="7">
-        <v>601</v>
+        <v>9</v>
       </c>
       <c r="N19" s="7">
-        <v>403523</v>
+        <v>6206</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>453</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D20" s="7">
-        <v>4764</v>
+        <v>8196</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>454</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>455</v>
@@ -5580,25 +5580,25 @@
         <v>456</v>
       </c>
       <c r="H20" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I20" s="7">
-        <v>2447</v>
+        <v>5690</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>255</v>
+        <v>457</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>458</v>
+        <v>258</v>
       </c>
       <c r="M20" s="7">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="N20" s="7">
-        <v>7211</v>
+        <v>13886</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>459</v>
@@ -5607,7 +5607,7 @@
         <v>460</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>144</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5616,10 +5616,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="D21" s="7">
-        <v>249380</v>
+        <v>278039</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>59</v>
@@ -5631,10 +5631,10 @@
         <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="I21" s="7">
-        <v>230786</v>
+        <v>266426</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>59</v>
@@ -5646,10 +5646,10 @@
         <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>715</v>
+        <v>748</v>
       </c>
       <c r="N21" s="7">
-        <v>480165</v>
+        <v>544465</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>59</v>
@@ -5669,49 +5669,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>53</v>
+        <v>789</v>
       </c>
       <c r="D22" s="7">
-        <v>36800</v>
+        <v>554982</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>461</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>256</v>
+        <v>462</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H22" s="7">
-        <v>32</v>
+        <v>769</v>
       </c>
       <c r="I22" s="7">
-        <v>21350</v>
+        <v>517189</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>203</v>
+        <v>466</v>
       </c>
       <c r="M22" s="7">
-        <v>85</v>
+        <v>1558</v>
       </c>
       <c r="N22" s="7">
-        <v>58150</v>
+        <v>1072172</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>109</v>
+        <v>469</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5726,10 +5726,10 @@
         <v>40343</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>206</v>
@@ -5741,13 +5741,13 @@
         <v>50235</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="M23" s="7">
         <v>133</v>
@@ -5756,13 +5756,13 @@
         <v>90578</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5771,49 +5771,49 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D24" s="7">
-        <v>35487</v>
+        <v>36800</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="H24" s="7">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="I24" s="7">
-        <v>36797</v>
+        <v>21350</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>122</v>
+        <v>480</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>322</v>
+        <v>481</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>477</v>
+        <v>203</v>
       </c>
       <c r="M24" s="7">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="N24" s="7">
-        <v>72284</v>
+        <v>58150</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>399</v>
+        <v>482</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>203</v>
+        <v>483</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>287</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5822,100 +5822,100 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>789</v>
+        <v>17</v>
       </c>
       <c r="D25" s="7">
-        <v>554982</v>
+        <v>11568</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>480</v>
+        <v>91</v>
       </c>
       <c r="H25" s="7">
-        <v>769</v>
+        <v>15</v>
       </c>
       <c r="I25" s="7">
-        <v>517189</v>
+        <v>9101</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>483</v>
+        <v>305</v>
       </c>
       <c r="M25" s="7">
-        <v>1558</v>
+        <v>32</v>
       </c>
       <c r="N25" s="7">
-        <v>1072172</v>
+        <v>20668</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="D26" s="7">
-        <v>11568</v>
+        <v>35487</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>488</v>
+        <v>253</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>144</v>
+        <v>492</v>
       </c>
       <c r="H26" s="7">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="I26" s="7">
-        <v>9101</v>
+        <v>36797</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>489</v>
+        <v>78</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>490</v>
+        <v>326</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>273</v>
+        <v>493</v>
       </c>
       <c r="M26" s="7">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="N26" s="7">
-        <v>20668</v>
+        <v>72284</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>491</v>
+        <v>436</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>492</v>
+        <v>203</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>493</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP3107-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP3107-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2BB44FC-BC4A-4ABE-8C5D-CDFF63863F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81946540-A51C-48CB-838D-BCEA7184C3AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0B151863-BA79-4189-8548-51ACAE2E13CA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DC7397A7-3A01-42E0-B7CD-1741601EF737}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="600">
   <si>
     <t>Menores según la frecuencia se lava los dientes por la mañana en 2007 (Tasa respuesta: 85,84%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>35,06%</t>
   </si>
   <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
   </si>
   <si>
     <t>44,01%</t>
   </si>
   <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
   </si>
   <si>
     <t>39,38%</t>
   </si>
   <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
   </si>
   <si>
     <t>Una/dos veces a la semana</t>
@@ -106,1714 +106,1738 @@
     <t>6,04%</t>
   </si>
   <si>
-    <t>1,5%</t>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>3 o 4 veces a la semana</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5 o 6 veces a la semana</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>Todos los dias</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
   </si>
   <si>
     <t>13,83%</t>
   </si>
   <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia se lava los dientes por la mañana en 2012 (Tasa respuesta: 83,71%)</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
   </si>
   <si>
     <t>10,34%</t>
   </si>
   <si>
-    <t>4,69%</t>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia se lava los dientes por la mañana en 2016 (Tasa respuesta: 90,08%)</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
   </si>
   <si>
     <t>1,59%</t>
   </si>
   <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>3 o 4 veces a la semana</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>5 o 6 veces a la semana</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
   </si>
   <si>
     <t>1,7%</t>
   </si>
   <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>Todos los dias</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
   </si>
   <si>
     <t>2,23%</t>
   </si>
   <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
   </si>
   <si>
     <t>4,43%</t>
   </si>
   <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según la frecuencia se lava los dientes por la mañana en 2012 (Tasa respuesta: 83,71%)</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
   </si>
   <si>
     <t>9,76%</t>
   </si>
   <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>Menores según la frecuencia se lava los dientes por la mañana en 2015 (Tasa respuesta: 90,08%)</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
+    <t>6,89%</t>
   </si>
   <si>
     <t>5,9%</t>
   </si>
   <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
+    <t>8,15%</t>
   </si>
   <si>
     <t>81,71%</t>
   </si>
   <si>
-    <t>79,22%</t>
+    <t>79,23%</t>
   </si>
   <si>
     <t>81,49%</t>
   </si>
   <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
   </si>
   <si>
     <t>81,61%</t>
   </si>
   <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
   </si>
 </sst>
 </file>
@@ -2225,7 +2249,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C25BAB-13A1-4BCE-9658-131C04CD7CB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B584F9AF-178B-4CE4-9E10-91A1DEA1B8BE}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2968,10 +2992,10 @@
         <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -2980,13 +3004,13 @@
         <v>11575</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>39</v>
@@ -2995,7 +3019,7 @@
         <v>26168</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>111</v>
@@ -3034,10 +3058,10 @@
         <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -3046,13 +3070,13 @@
         <v>10572</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3067,13 +3091,13 @@
         <v>12538</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H18" s="7">
         <v>12</v>
@@ -3082,13 +3106,13 @@
         <v>8053</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M18" s="7">
         <v>31</v>
@@ -3097,13 +3121,13 @@
         <v>20591</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,13 +3142,13 @@
         <v>5780</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -3133,13 +3157,13 @@
         <v>5903</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M19" s="7">
         <v>18</v>
@@ -3148,13 +3172,13 @@
         <v>11684</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3169,13 +3193,13 @@
         <v>98893</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H20" s="7">
         <v>141</v>
@@ -3184,13 +3208,13 @@
         <v>93868</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M20" s="7">
         <v>288</v>
@@ -3199,13 +3223,13 @@
         <v>192760</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3261,7 +3285,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3273,13 +3297,13 @@
         <v>20790</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>18</v>
@@ -3288,13 +3312,13 @@
         <v>12254</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>49</v>
@@ -3303,13 +3327,13 @@
         <v>33044</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3324,10 +3348,10 @@
         <v>4676</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>159</v>
@@ -3390,7 +3414,7 @@
         <v>8412</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>167</v>
@@ -3408,10 +3432,10 @@
         <v>169</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3426,13 +3450,13 @@
         <v>5590</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>70</v>
+        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -3441,13 +3465,13 @@
         <v>3275</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>13</v>
@@ -3456,13 +3480,13 @@
         <v>8865</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3477,13 +3501,13 @@
         <v>166739</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>240</v>
@@ -3492,13 +3516,13 @@
         <v>163274</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>491</v>
@@ -3507,13 +3531,13 @@
         <v>330013</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3581,13 +3605,13 @@
         <v>103176</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H28" s="7">
         <v>138</v>
@@ -3596,13 +3620,13 @@
         <v>92578</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>192</v>
+        <v>60</v>
       </c>
       <c r="M28" s="7">
         <v>293</v>
@@ -3611,13 +3635,13 @@
         <v>195753</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3632,13 +3656,13 @@
         <v>20562</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H29" s="7">
         <v>26</v>
@@ -3647,13 +3671,13 @@
         <v>17083</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M29" s="7">
         <v>57</v>
@@ -3662,10 +3686,10 @@
         <v>37646</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>169</v>
@@ -3683,13 +3707,13 @@
         <v>41339</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H30" s="7">
         <v>56</v>
@@ -3698,13 +3722,13 @@
         <v>37247</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M30" s="7">
         <v>118</v>
@@ -3713,10 +3737,10 @@
         <v>78586</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>209</v>
+        <v>109</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>210</v>
@@ -3752,10 +3776,10 @@
         <v>214</v>
       </c>
       <c r="K31" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M31" s="7">
         <v>61</v>
@@ -3764,10 +3788,10 @@
         <v>40706</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>218</v>
@@ -3803,10 +3827,10 @@
         <v>222</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>146</v>
+        <v>223</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M32" s="7">
         <v>1277</v>
@@ -3815,13 +3839,13 @@
         <v>855865</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3877,7 +3901,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3897,7 +3921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A76D02D0-0875-4676-BC9D-FB81FDE8E00C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33383DFC-0817-4015-BF03-14706B738FCA}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3914,7 +3938,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4021,13 +4045,13 @@
         <v>16625</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H4" s="7">
         <v>36</v>
@@ -4036,13 +4060,13 @@
         <v>23902</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M4" s="7">
         <v>60</v>
@@ -4051,10 +4075,10 @@
         <v>40527</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>236</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>237</v>
@@ -4093,7 +4117,7 @@
         <v>240</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>123</v>
+        <v>241</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -4102,13 +4126,13 @@
         <v>4612</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>200</v>
+        <v>243</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4123,13 +4147,13 @@
         <v>4521</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -4138,13 +4162,13 @@
         <v>2134</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M6" s="7">
         <v>9</v>
@@ -4153,13 +4177,13 @@
         <v>6655</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>249</v>
+        <v>197</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4174,10 +4198,10 @@
         <v>1966</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>252</v>
+        <v>178</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>253</v>
@@ -4240,13 +4264,13 @@
         <v>22838</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>55</v>
+        <v>263</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M8" s="7">
         <v>65</v>
@@ -4255,13 +4279,13 @@
         <v>45023</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4329,13 +4353,13 @@
         <v>19081</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>132</v>
+        <v>269</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>76</v>
+        <v>254</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H10" s="7">
         <v>20</v>
@@ -4344,13 +4368,13 @@
         <v>13177</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>269</v>
+        <v>81</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>271</v>
+        <v>46</v>
       </c>
       <c r="M10" s="7">
         <v>48</v>
@@ -4362,10 +4386,10 @@
         <v>272</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>76</v>
+        <v>273</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>273</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4386,7 +4410,7 @@
         <v>275</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="H11" s="7">
         <v>17</v>
@@ -4413,10 +4437,10 @@
         <v>279</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>214</v>
+        <v>280</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4431,13 +4455,13 @@
         <v>31941</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H12" s="7">
         <v>21</v>
@@ -4446,13 +4470,13 @@
         <v>14829</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>284</v>
+        <v>37</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M12" s="7">
         <v>65</v>
@@ -4461,13 +4485,13 @@
         <v>46770</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,13 +4506,13 @@
         <v>18685</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -4497,13 +4521,13 @@
         <v>12023</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M13" s="7">
         <v>44</v>
@@ -4512,13 +4536,13 @@
         <v>30708</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,13 +4557,13 @@
         <v>173110</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="H14" s="7">
         <v>236</v>
@@ -4548,13 +4572,13 @@
         <v>164922</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="M14" s="7">
         <v>476</v>
@@ -4563,13 +4587,13 @@
         <v>338032</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4640,10 +4664,10 @@
         <v>44</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -4652,13 +4676,13 @@
         <v>7493</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>311</v>
+        <v>161</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>312</v>
+        <v>115</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -4667,13 +4691,13 @@
         <v>12924</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4688,13 +4712,13 @@
         <v>2772</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>285</v>
+        <v>202</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -4706,10 +4730,10 @@
         <v>211</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -4718,13 +4742,13 @@
         <v>8205</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4739,13 +4763,13 @@
         <v>10919</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H18" s="7">
         <v>21</v>
@@ -4754,13 +4778,13 @@
         <v>14731</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="M18" s="7">
         <v>36</v>
@@ -4769,13 +4793,13 @@
         <v>25650</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4790,13 +4814,13 @@
         <v>7991</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -4808,10 +4832,10 @@
         <v>113</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -4820,13 +4844,13 @@
         <v>15248</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>213</v>
+        <v>332</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4841,13 +4865,13 @@
         <v>128017</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H20" s="7">
         <v>169</v>
@@ -4856,13 +4880,13 @@
         <v>119573</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="M20" s="7">
         <v>353</v>
@@ -4871,13 +4895,13 @@
         <v>247590</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4933,7 +4957,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4945,13 +4969,13 @@
         <v>10011</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>350</v>
+        <v>283</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -4960,13 +4984,13 @@
         <v>2161</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>351</v>
+        <v>178</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="M22" s="7">
         <v>18</v>
@@ -4978,10 +5002,10 @@
         <v>44</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4996,13 +5020,13 @@
         <v>4248</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>355</v>
+        <v>204</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>45</v>
+        <v>349</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -5011,13 +5035,13 @@
         <v>3533</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>251</v>
+        <v>353</v>
       </c>
       <c r="M23" s="7">
         <v>12</v>
@@ -5026,13 +5050,13 @@
         <v>7780</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>359</v>
+        <v>255</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>270</v>
+        <v>355</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5047,13 +5071,13 @@
         <v>13865</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>70</v>
+        <v>357</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H24" s="7">
         <v>11</v>
@@ -5062,13 +5086,13 @@
         <v>7599</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="M24" s="7">
         <v>31</v>
@@ -5077,13 +5101,13 @@
         <v>21465</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>285</v>
+        <v>363</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>366</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5098,13 +5122,13 @@
         <v>9315</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -5113,13 +5137,13 @@
         <v>4575</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>246</v>
+        <v>368</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -5128,13 +5152,13 @@
         <v>13889</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>373</v>
+        <v>75</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>327</v>
+        <v>371</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5149,13 +5173,13 @@
         <v>139865</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="H26" s="7">
         <v>216</v>
@@ -5164,13 +5188,13 @@
         <v>152861</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="M26" s="7">
         <v>423</v>
@@ -5179,13 +5203,13 @@
         <v>292726</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,13 +5277,13 @@
         <v>51149</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="H28" s="7">
         <v>70</v>
@@ -5268,13 +5292,13 @@
         <v>46733</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="M28" s="7">
         <v>145</v>
@@ -5283,13 +5307,13 @@
         <v>97882</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>312</v>
+        <v>386</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,13 +5328,13 @@
         <v>19059</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="H29" s="7">
         <v>36</v>
@@ -5319,13 +5343,13 @@
         <v>23816</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>68</v>
+        <v>392</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M29" s="7">
         <v>62</v>
@@ -5334,13 +5358,13 @@
         <v>42875</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>394</v>
+        <v>367</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>159</v>
+        <v>395</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5355,13 +5379,13 @@
         <v>61246</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H30" s="7">
         <v>56</v>
@@ -5370,13 +5394,13 @@
         <v>39293</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>310</v>
+        <v>400</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>329</v>
+        <v>401</v>
       </c>
       <c r="M30" s="7">
         <v>141</v>
@@ -5385,13 +5409,13 @@
         <v>100539</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>243</v>
+        <v>404</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5406,13 +5430,13 @@
         <v>37957</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="H31" s="7">
         <v>38</v>
@@ -5421,13 +5445,13 @@
         <v>26571</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="M31" s="7">
         <v>92</v>
@@ -5436,13 +5460,13 @@
         <v>64528</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5457,13 +5481,13 @@
         <v>463177</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="H32" s="7">
         <v>656</v>
@@ -5472,28 +5496,28 @@
         <v>460194</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="M32" s="7">
         <v>1317</v>
       </c>
       <c r="N32" s="7">
-        <v>923370</v>
+        <v>923371</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5535,7 +5559,7 @@
         <v>1757</v>
       </c>
       <c r="N33" s="7">
-        <v>1229194</v>
+        <v>1229195</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>57</v>
@@ -5549,7 +5573,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -5569,7 +5593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC56C14-B8A3-4F43-A637-55BBB4EAFB35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BAA556-8633-4077-B061-4E7A78B72FED}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5586,7 +5610,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5693,13 +5717,13 @@
         <v>15733</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>423</v>
       </c>
       <c r="H4" s="7">
         <v>30</v>
@@ -5708,13 +5732,13 @@
         <v>19726</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="M4" s="7">
         <v>53</v>
@@ -5723,13 +5747,13 @@
         <v>35459</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5744,13 +5768,13 @@
         <v>607</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -5759,13 +5783,13 @@
         <v>3065</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>406</v>
+        <v>432</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>39</v>
+        <v>314</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -5774,13 +5798,13 @@
         <v>3672</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5795,13 +5819,13 @@
         <v>5960</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -5810,13 +5834,13 @@
         <v>3647</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>275</v>
+        <v>440</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="M6" s="7">
         <v>15</v>
@@ -5825,13 +5849,13 @@
         <v>9607</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>338</v>
+        <v>442</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5846,13 +5870,13 @@
         <v>6409</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>439</v>
+        <v>350</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -5861,13 +5885,13 @@
         <v>5928</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>372</v>
+        <v>448</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -5876,13 +5900,13 @@
         <v>12337</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5897,13 +5921,13 @@
         <v>34698</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="H8" s="7">
         <v>63</v>
@@ -5912,13 +5936,13 @@
         <v>38477</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>451</v>
+        <v>298</v>
       </c>
       <c r="M8" s="7">
         <v>116</v>
@@ -5927,13 +5951,13 @@
         <v>73175</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6001,13 +6025,13 @@
         <v>10219</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>153</v>
+        <v>460</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>315</v>
+        <v>462</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -6016,13 +6040,13 @@
         <v>6136</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="M10" s="7">
         <v>25</v>
@@ -6031,13 +6055,13 @@
         <v>16356</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>311</v>
+        <v>198</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6052,13 +6076,13 @@
         <v>4634</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -6067,13 +6091,13 @@
         <v>3563</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>464</v>
+        <v>90</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>160</v>
+        <v>471</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>472</v>
       </c>
       <c r="M11" s="7">
         <v>13</v>
@@ -6082,13 +6106,13 @@
         <v>8196</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>465</v>
+        <v>440</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6103,13 +6127,13 @@
         <v>12946</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>469</v>
+        <v>116</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -6118,13 +6142,13 @@
         <v>3351</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="M12" s="7">
         <v>24</v>
@@ -6136,10 +6160,10 @@
         <v>211</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>474</v>
+        <v>133</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6154,13 +6178,13 @@
         <v>18446</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -6169,13 +6193,13 @@
         <v>18154</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="M13" s="7">
         <v>54</v>
@@ -6184,13 +6208,13 @@
         <v>36600</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>482</v>
+        <v>131</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>365</v>
+        <v>21</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6205,13 +6229,13 @@
         <v>210498</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="H14" s="7">
         <v>275</v>
@@ -6220,13 +6244,13 @@
         <v>174459</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="M14" s="7">
         <v>586</v>
@@ -6235,13 +6259,13 @@
         <v>384956</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6309,13 +6333,13 @@
         <v>4258</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>495</v>
+        <v>27</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -6327,10 +6351,10 @@
         <v>211</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>316</v>
+        <v>499</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -6342,10 +6366,10 @@
         <v>68</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>495</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6360,13 +6384,13 @@
         <v>4349</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>311</v>
+        <v>133</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>477</v>
+        <v>503</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -6375,13 +6399,13 @@
         <v>617</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -6390,13 +6414,13 @@
         <v>4966</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>171</v>
+        <v>506</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6411,13 +6435,13 @@
         <v>11339</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>459</v>
+        <v>509</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="H18" s="7">
         <v>17</v>
@@ -6426,13 +6450,13 @@
         <v>11556</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>386</v>
+        <v>511</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>326</v>
+        <v>513</v>
       </c>
       <c r="M18" s="7">
         <v>33</v>
@@ -6441,13 +6465,13 @@
         <v>22895</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>507</v>
+        <v>443</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6462,13 +6486,13 @@
         <v>6967</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>125</v>
+        <v>516</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>464</v>
+        <v>517</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="H19" s="7">
         <v>24</v>
@@ -6477,13 +6501,13 @@
         <v>15748</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>511</v>
+        <v>121</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="M19" s="7">
         <v>33</v>
@@ -6492,13 +6516,13 @@
         <v>22715</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6513,13 +6537,13 @@
         <v>161658</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="H20" s="7">
         <v>216</v>
@@ -6528,13 +6552,13 @@
         <v>151109</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="M20" s="7">
         <v>442</v>
@@ -6543,13 +6567,13 @@
         <v>312767</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6605,7 +6629,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6617,13 +6641,13 @@
         <v>5277</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>33</v>
+        <v>534</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>120</v>
+        <v>535</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -6632,13 +6656,13 @@
         <v>4411</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>72</v>
+        <v>536</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>526</v>
+        <v>248</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>468</v>
+        <v>537</v>
       </c>
       <c r="M22" s="7">
         <v>14</v>
@@ -6647,13 +6671,13 @@
         <v>9687</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6668,13 +6692,13 @@
         <v>1978</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>359</v>
+        <v>541</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>337</v>
+        <v>543</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -6683,13 +6707,13 @@
         <v>1856</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>531</v>
+        <v>349</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
@@ -6698,13 +6722,13 @@
         <v>3834</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>352</v>
+        <v>547</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>335</v>
+        <v>548</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6719,13 +6743,13 @@
         <v>6555</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>535</v>
+        <v>355</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>536</v>
+        <v>517</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -6734,13 +6758,13 @@
         <v>2797</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>538</v>
+        <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>539</v>
+        <v>443</v>
       </c>
       <c r="M24" s="7">
         <v>13</v>
@@ -6749,13 +6773,13 @@
         <v>9352</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>540</v>
+        <v>162</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6770,13 +6794,13 @@
         <v>8521</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>543</v>
+        <v>316</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="H25" s="7">
         <v>15</v>
@@ -6785,13 +6809,13 @@
         <v>10405</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="M25" s="7">
         <v>27</v>
@@ -6800,13 +6824,13 @@
         <v>18926</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>392</v>
+        <v>556</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>245</v>
+        <v>179</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6821,13 +6845,13 @@
         <v>148128</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="H26" s="7">
         <v>215</v>
@@ -6836,13 +6860,13 @@
         <v>153145</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="M26" s="7">
         <v>414</v>
@@ -6851,13 +6875,13 @@
         <v>301272</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6925,13 +6949,13 @@
         <v>35487</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>94</v>
+        <v>567</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>558</v>
+        <v>370</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>559</v>
+        <v>117</v>
       </c>
       <c r="H28" s="7">
         <v>56</v>
@@ -6940,13 +6964,13 @@
         <v>36797</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="M28" s="7">
         <v>107</v>
@@ -6955,13 +6979,13 @@
         <v>72284</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>402</v>
+        <v>448</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6976,13 +7000,13 @@
         <v>11568</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>42</v>
+        <v>573</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>164</v>
+        <v>575</v>
       </c>
       <c r="H29" s="7">
         <v>15</v>
@@ -6991,13 +7015,13 @@
         <v>9101</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>355</v>
+        <v>548</v>
       </c>
       <c r="M29" s="7">
         <v>32</v>
@@ -7006,13 +7030,13 @@
         <v>20668</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>528</v>
+        <v>578</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>568</v>
+        <v>349</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7027,13 +7051,13 @@
         <v>36800</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>571</v>
+        <v>152</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="H30" s="7">
         <v>32</v>
@@ -7042,13 +7066,13 @@
         <v>21350</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>574</v>
+        <v>93</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>575</v>
+        <v>132</v>
       </c>
       <c r="M30" s="7">
         <v>85</v>
@@ -7057,13 +7081,13 @@
         <v>58150</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>159</v>
+        <v>583</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7078,13 +7102,13 @@
         <v>40343</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>578</v>
+        <v>199</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="H31" s="7">
         <v>76</v>
@@ -7093,13 +7117,13 @@
         <v>50235</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>482</v>
+        <v>131</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="M31" s="7">
         <v>133</v>
@@ -7108,13 +7132,13 @@
         <v>90578</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>34</v>
+        <v>590</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7129,13 +7153,13 @@
         <v>554982</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H32" s="7">
         <v>769</v>
@@ -7144,13 +7168,13 @@
         <v>517189</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="M32" s="7">
         <v>1558</v>
@@ -7159,13 +7183,13 @@
         <v>1072172</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7221,7 +7245,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
